--- a/similarities/split_global/harmonic_similarity_timestamps_7.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,530 +484,554 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A', 'D/5', 'A', 'E/4']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:31.910000', '0:00:44.110000')]</t>
+          <t>('0:00:59.220000', '0:01:11.120000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
+          <t>('0:00:17.913000', '0:00:26.611000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=116.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:00:10.560000', '0:00:17.340000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000')]</t>
+          <t>('0:00:19.780000', '0:00:23.120000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:08.040000', '0:01:19')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:00:23.260000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:42.140000', '0:00:44.360000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:01.420000', '0:00:07.080000')]</t>
+          <t>('0:00:03.389127', '0:00:22.035759')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=1.42']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>isophonics_219</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:min', 'Eb:7/#5', 'Ab']]</t>
+          <t>['A#:maj', 'D#:min', 'A#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:min', 'G:7', 'C']]</t>
+          <t>['A', 'D:min', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.190000', '0:00:05.050000')]</t>
+          <t>('0:00:02.020000', '0:00:05.520000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:03.733000', '0:00:08.605000')]</t>
+          <t>('0:01:15.058526', '0:01:45.418616')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-234#t=0.19']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=3.733']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:00.260000', '0:00:07.340000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['A:min', 'B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:04.103323', '0:00:13.890534')]</t>
+          <t>('0:01:33.920000', '0:01:50.760000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:43.260000', '0:00:45.660000')]</t>
+          <t>('0:00:10.560000', '0:00:17.820000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=93.92</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=10.56</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:21.020000', '0:00:31.860000')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
+          <t>('0:00:26.960000', '0:00:33.500000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=21.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=7.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:07.760000', '0:01:17.500000')]</t>
+          <t>('0:00:10.090000', '0:00:20.170000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:12.200000', '0:00:17.780000')]</t>
+          <t>('0:00:19.500000', '0:00:30.320000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:24.980000', '0:00:31.820000')]</t>
+          <t>('0:01:04.871315', '0:01:12.777709')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=12.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=19.5</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=24.98']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=64.871315</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1017,37 +1041,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:47.760000', '0:00:59.620000')]</t>
+          <t>('0:00:18.120000', '0:00:24.540000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:03')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=47.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1056,138 +1080,150 @@
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:17.839297', '0:00:30.215532')]</t>
+          <t>('0:04:03.440000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:09.920000', '0:00:11.960000')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb:7', 'Ab']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:05.440000', '0:00:14.410000')]</t>
+          <t>('0:00:13.080000', '0:00:19.340000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:13.740000', '0:01:29.520000')]</t>
+          <t>('0:00:05.840000', '0:00:12.720000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=73.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
